--- a/REGULAR/DSWD/ROZUL, FLORENCIA.xlsx
+++ b/REGULAR/DSWD/ROZUL, FLORENCIA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="225">
   <si>
     <t>PERIOD</t>
   </si>
@@ -706,6 +706,9 @@
   </si>
   <si>
     <t>UT(0-1-54)</t>
+  </si>
+  <si>
+    <t>11/3,6/2023</t>
   </si>
 </sst>
 </file>
@@ -3484,9 +3487,9 @@
   <dimension ref="A2:K374"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A323" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A341" activePane="bottomLeft"/>
       <selection activeCell="D349" sqref="D349"/>
-      <selection pane="bottomLeft" activeCell="E334" sqref="E334"/>
+      <selection pane="bottomLeft" activeCell="I358" sqref="I358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3649,7 +3652,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>95.220000000000027</v>
+        <v>100.22000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3659,7 +3662,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>248.75</v>
+        <v>251.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11247,13 +11250,15 @@
       <c r="B354" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C354" s="13"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D354" s="39"/>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H354" s="39">
         <v>1</v>
@@ -11269,13 +11274,15 @@
         <v>45139</v>
       </c>
       <c r="B355" s="20"/>
-      <c r="C355" s="13"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H355" s="39"/>
       <c r="I355" s="9"/>
@@ -11287,13 +11294,15 @@
         <v>45170</v>
       </c>
       <c r="B356" s="20"/>
-      <c r="C356" s="13"/>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D356" s="39"/>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G356" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
@@ -11304,25 +11313,33 @@
       <c r="A357" s="40">
         <v>45200</v>
       </c>
-      <c r="B357" s="20"/>
-      <c r="C357" s="13"/>
+      <c r="B357" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D357" s="39"/>
       <c r="E357" s="9"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G357" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H357" s="39"/>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
-      <c r="K357" s="20"/>
+      <c r="K357" s="48">
+        <v>45225</v>
+      </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>45231</v>
       </c>
-      <c r="B358" s="20"/>
+      <c r="B358" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
       <c r="E358" s="9"/>
@@ -11331,10 +11348,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H358" s="39"/>
+      <c r="H358" s="39">
+        <v>2</v>
+      </c>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
-      <c r="K358" s="20"/>
+      <c r="K358" s="20" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
